--- a/base_data/MG1.xlsx
+++ b/base_data/MG1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Matlab Workspace\Generalized_MG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Matlab Workspace\Generalized_MG\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="L1" sheetId="1" r:id="rId9"/>
     <sheet name="L2" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Dishwasher</t>
   </si>
@@ -143,18 +143,6 @@
     <t>ES1</t>
   </si>
   <si>
-    <t>ES2</t>
-  </si>
-  <si>
-    <t>ES3</t>
-  </si>
-  <si>
-    <t>ES4</t>
-  </si>
-  <si>
-    <t>ES5</t>
-  </si>
-  <si>
     <t>CL_in</t>
   </si>
   <si>
@@ -236,13 +224,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="h:mm"/>
+    <numFmt numFmtId="165" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,7 +238,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -284,7 +272,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -381,6 +369,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -416,6 +421,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,50 +592,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -622,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -643,46 +665,46 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -698,12 +720,12 @@
       <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -741,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -761,7 +783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -781,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -795,7 +817,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -809,7 +831,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -823,7 +845,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -837,7 +859,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -851,7 +873,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -865,7 +887,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -879,7 +901,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -893,7 +915,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -907,7 +929,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -921,7 +943,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -935,7 +957,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -949,7 +971,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -963,7 +985,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -977,7 +999,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -991,7 +1013,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -1005,7 +1027,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -1019,7 +1041,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -1033,7 +1055,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -1075,7 +1097,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -1089,7 +1111,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -1103,7 +1125,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -1117,7 +1139,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -1131,7 +1153,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -1145,7 +1167,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -1159,7 +1181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -1173,7 +1195,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -1187,7 +1209,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -1201,7 +1223,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -1215,7 +1237,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -1229,7 +1251,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -1243,7 +1265,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -1257,7 +1279,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -1285,7 +1307,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -1299,7 +1321,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -1313,7 +1335,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -1327,7 +1349,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -1341,7 +1363,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -1355,7 +1377,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -1369,7 +1391,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -1383,7 +1405,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -1397,7 +1419,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -1424,15 +1446,15 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1469,7 +1491,7 @@
         <v>0.1749522</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1489,7 +1511,7 @@
         <v>0.14421613124375068</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -1509,7 +1531,7 @@
         <v>0.1316232</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -1529,7 +1551,7 @@
         <v>0.11136303227283768</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -1549,7 +1571,7 @@
         <v>0.10477740000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -1569,7 +1591,7 @@
         <v>0.10509521527365598</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -1589,7 +1611,7 @@
         <v>0.1059288</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>0.11169539751042631</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -1629,7 +1651,7 @@
         <v>0.1144128</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -1649,7 +1671,7 @@
         <v>0.12179680266159128</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -1669,7 +1691,7 @@
         <v>0.1256844</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -1689,7 +1711,7 @@
         <v>0.13265136970502556</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>0.1685286</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -1729,7 +1751,7 @@
         <v>0.17100927326883847</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -1749,7 +1771,7 @@
         <v>0.18937500000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -1769,7 +1791,7 @@
         <v>0.20498884542141108</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -1789,7 +1811,7 @@
         <v>0.22070520000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -1809,7 +1831,7 @@
         <v>0.2280334209696456</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -1829,7 +1851,7 @@
         <v>0.22834080000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -1849,7 +1871,7 @@
         <v>0.25177349804085947</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -1869,7 +1891,7 @@
         <v>0.29718240000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -1889,7 +1911,7 @@
         <v>0.2721070714234724</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -1909,7 +1931,7 @@
         <v>0.25433820000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -1929,7 +1951,7 @@
         <v>0.25867836113061188</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -1949,7 +1971,7 @@
         <v>0.27373019999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -1969,7 +1991,7 @@
         <v>0.26981489659372243</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -1989,7 +2011,7 @@
         <v>0.2685186</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -2009,7 +2031,7 @@
         <v>0.28666718893228033</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -2029,7 +2051,7 @@
         <v>0.33966299999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -2049,7 +2071,7 @@
         <v>0.30339104015753648</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -2069,7 +2091,7 @@
         <v>0.26797320000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -2089,7 +2111,7 @@
         <v>0.22717662043454553</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>0.20961539999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -2129,7 +2151,7 @@
         <v>0.18839782631825785</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -2149,7 +2171,7 @@
         <v>0.18579959999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -2169,7 +2191,7 @@
         <v>0.17318472590026343</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -2189,7 +2211,7 @@
         <v>0.17264939999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -2209,7 +2231,7 @@
         <v>0.18093971527895159</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -2229,7 +2251,7 @@
         <v>0.18779940000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -2249,7 +2271,7 @@
         <v>0.18682492561669134</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -2269,7 +2291,7 @@
         <v>0.18076980000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -2289,7 +2311,7 @@
         <v>0.17345060165986484</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -2309,7 +2331,7 @@
         <v>0.13174440000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -2329,7 +2351,7 @@
         <v>0.1333829250209892</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -2349,7 +2371,7 @@
         <v>0.13810739999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -2369,7 +2391,7 @@
         <v>0.12837643404889149</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -2389,7 +2411,7 @@
         <v>0.1265328</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -2423,9 +2445,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2436,7 +2458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2460,23 +2482,23 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2487,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2498,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -2509,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -2520,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -2531,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -2542,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -2553,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -2564,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -2575,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -2586,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -2597,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -2608,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -2619,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -2630,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -2641,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -2652,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -2663,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -2674,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -2685,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -2696,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -2707,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -2718,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -2729,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -2740,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -2751,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -2762,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -2773,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -2784,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -2795,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -2806,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -2817,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -2828,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -2839,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -2850,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -2861,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -2872,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -2883,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -2894,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -2905,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -2916,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -2938,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -2949,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -2960,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -2971,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -2982,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -2993,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -3011,18 +3033,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3054,7 +3076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3083,134 +3105,6 @@
         <v>0.45</v>
       </c>
       <c r="J2" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="J6" s="1">
         <v>0.7</v>
       </c>
     </row>
@@ -3227,26 +3121,26 @@
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>26</v>
@@ -3261,12 +3155,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1">
         <v>0.08</v>
@@ -3306,13 +3200,13 @@
       <selection activeCell="A22" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3320,7 +3214,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3328,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3336,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3344,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -3352,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -3360,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -3368,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -3376,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -3384,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -3392,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -3400,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -3408,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -3416,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -3424,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -3432,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -3440,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -3448,7 +3342,7 @@
         <v>0.107941315256702</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -3456,7 +3350,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -3464,7 +3358,7 @@
         <v>0.63381856399091596</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -3472,7 +3366,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -3480,7 +3374,7 @@
         <v>2.4300650562130901</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -3488,7 +3382,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -3496,7 +3390,7 @@
         <v>3.0298431360903701</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -3504,7 +3398,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -3512,7 +3406,7 @@
         <v>3.9160460858832198</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -3520,7 +3414,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -3528,7 +3422,7 @@
         <v>3.9354522377357699</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -3536,7 +3430,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -3544,7 +3438,7 @@
         <v>3.70116613342593</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -3552,7 +3446,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -3560,7 +3454,7 @@
         <v>3.1572305098076399</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -3568,7 +3462,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -3576,7 +3470,7 @@
         <v>2.51909373400157</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -3584,7 +3478,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -3592,7 +3486,7 @@
         <v>0.15423519498469501</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -3600,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -3608,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -3616,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -3624,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -3632,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -3640,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -3648,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -3656,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -3664,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -3672,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -3680,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -3688,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -3696,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -3718,22 +3612,22 @@
       <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="9.140625" style="1"/>
+    <col min="9" max="18" width="9.125" style="1"/>
     <col min="19" max="19" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3768,7 +3662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3803,7 +3697,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -3838,7 +3732,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -3873,7 +3767,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -3908,7 +3802,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -3943,7 +3837,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -3978,7 +3872,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -4013,7 +3907,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -4048,7 +3942,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -4083,7 +3977,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -4118,7 +4012,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -4153,7 +4047,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -4188,7 +4082,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -4223,7 +4117,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -4258,7 +4152,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -4293,7 +4187,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -4328,7 +4222,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -4363,7 +4257,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -4398,7 +4292,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -4433,7 +4327,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -4468,7 +4362,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -4503,7 +4397,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -4538,7 +4432,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -4573,7 +4467,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -4608,7 +4502,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -4643,7 +4537,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -4678,7 +4572,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -4713,7 +4607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -4748,7 +4642,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -4783,7 +4677,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -4818,7 +4712,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -4853,7 +4747,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -4888,7 +4782,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -4923,7 +4817,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -4958,7 +4852,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -4993,7 +4887,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -5028,7 +4922,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -5063,7 +4957,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -5098,7 +4992,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -5133,7 +5027,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -5168,7 +5062,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -5203,7 +5097,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -5238,7 +5132,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -5273,7 +5167,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -5308,7 +5202,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -5343,7 +5237,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -5378,7 +5272,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -5413,7 +5307,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>
@@ -5458,23 +5352,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1"/>
+    <col min="6" max="6" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5491,7 +5385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -5511,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -5531,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>4.1666666666666699E-2</v>
       </c>
@@ -5551,7 +5445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6.25E-2</v>
       </c>
@@ -5565,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>8.3333333333333301E-2</v>
       </c>
@@ -5579,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>0.104166666666667</v>
       </c>
@@ -5593,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
@@ -5607,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>0.14583333333333301</v>
       </c>
@@ -5621,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>0.16666666666666699</v>
       </c>
@@ -5635,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>0.1875</v>
       </c>
@@ -5649,7 +5543,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0.20833333333333301</v>
       </c>
@@ -5663,7 +5557,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>0.22916666666666699</v>
       </c>
@@ -5677,7 +5571,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>0.25</v>
       </c>
@@ -5691,7 +5585,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>0.27083333333333298</v>
       </c>
@@ -5705,7 +5599,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>0.29166666666666702</v>
       </c>
@@ -5719,7 +5613,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>0.3125</v>
       </c>
@@ -5733,7 +5627,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>0.33333333333333298</v>
       </c>
@@ -5747,7 +5641,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>0.35416666666666702</v>
       </c>
@@ -5761,7 +5655,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>0.375</v>
       </c>
@@ -5775,7 +5669,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>0.39583333333333298</v>
       </c>
@@ -5789,7 +5683,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>0.41666666666666702</v>
       </c>
@@ -5803,7 +5697,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>0.4375</v>
       </c>
@@ -5817,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>0.45833333333333298</v>
       </c>
@@ -5831,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>0.47916666666666702</v>
       </c>
@@ -5845,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>0.5</v>
       </c>
@@ -5859,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>0.52083333333333304</v>
       </c>
@@ -5873,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>0.54166666666666696</v>
       </c>
@@ -5887,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0.5625</v>
       </c>
@@ -5901,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>0.58333333333333304</v>
       </c>
@@ -5915,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>0.60416666666666696</v>
       </c>
@@ -5929,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>0.625</v>
       </c>
@@ -5943,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>0.64583333333333304</v>
       </c>
@@ -5957,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>0.66666666666666696</v>
       </c>
@@ -5971,7 +5865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0.6875</v>
       </c>
@@ -5985,7 +5879,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>0.70833333333333304</v>
       </c>
@@ -5999,7 +5893,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>0.72916666666666696</v>
       </c>
@@ -6013,7 +5907,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>0.75</v>
       </c>
@@ -6027,7 +5921,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>0.77083333333333304</v>
       </c>
@@ -6041,7 +5935,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>0.79166666666666696</v>
       </c>
@@ -6055,7 +5949,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>0.8125</v>
       </c>
@@ -6069,7 +5963,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>0.83333333333333304</v>
       </c>
@@ -6083,7 +5977,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>0.85416666666666696</v>
       </c>
@@ -6097,7 +5991,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>0.875</v>
       </c>
@@ -6111,7 +6005,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>0.89583333333333304</v>
       </c>
@@ -6125,7 +6019,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>0.91666666666666696</v>
       </c>
@@ -6139,7 +6033,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>0.9375</v>
       </c>
@@ -6153,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>0.95833333333333304</v>
       </c>
@@ -6167,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>0.97916666666666696</v>
       </c>

--- a/base_data/MG1.xlsx
+++ b/base_data/MG1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Dishwasher</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>span</t>
+  </si>
+  <si>
+    <t>Air_con</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -716,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -3608,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5352,8 +5355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
